--- a/data/trans_camb/IP17-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP17-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 6,24</t>
+          <t>-12,86; 5,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 5,09</t>
+          <t>-15,74; 4,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 2,33</t>
+          <t>-19,31; 1,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 8,68</t>
+          <t>-10,6; 8,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 22,88</t>
+          <t>-0,57; 22,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 1,97</t>
+          <t>-18,64; 2,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 4,52</t>
+          <t>-9,03; 5,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 9,29</t>
+          <t>-6,85; 9,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,47; -1,05</t>
+          <t>-15,71; -0,9</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-45,01; 34,49</t>
+          <t>-46,66; 32,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-58,08; 27,22</t>
+          <t>-56,56; 26,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-68,85; 13,78</t>
+          <t>-66,25; 11,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,38; 50,9</t>
+          <t>-39,14; 53,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 135,68</t>
+          <t>-3,39; 137,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,75; 13,67</t>
+          <t>-71,17; 15,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-36,15; 23,25</t>
+          <t>-34,38; 27,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,56; 46,55</t>
+          <t>-26,18; 50,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-60,06; -4,34</t>
+          <t>-61,62; -2,92</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 7,27</t>
+          <t>-1,67; 7,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 1,7</t>
+          <t>-6,54; 1,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 0,18</t>
+          <t>-8,51; 0,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 7,33</t>
+          <t>-1,53; 7,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 4,85</t>
+          <t>-3,49; 5,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,95; -0,23</t>
+          <t>-8,46; 0,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 5,87</t>
+          <t>-0,29; 6,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 1,71</t>
+          <t>-4,07; 2,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,33; -1,3</t>
+          <t>-7,12; -1,28</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 35,9</t>
+          <t>-7,15; 35,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 8,29</t>
+          <t>-26,97; 8,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 0,82</t>
+          <t>-35,64; 0,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 43,33</t>
+          <t>-7,41; 44,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 29,77</t>
+          <t>-16,91; 30,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,72; -1,81</t>
+          <t>-39,71; 1,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 30,17</t>
+          <t>-1,32; 31,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 8,89</t>
+          <t>-18,35; 10,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-33,29; -6,94</t>
+          <t>-32,22; -6,61</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 1,93</t>
+          <t>-10,93; 2,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 4,36</t>
+          <t>-8,76; 4,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 1,39</t>
+          <t>-12,37; 1,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 14,28</t>
+          <t>-1,33; 14,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 5,69</t>
+          <t>-7,68; 5,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 5,62</t>
+          <t>-8,74; 6,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 6,97</t>
+          <t>-3,79; 6,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 3,48</t>
+          <t>-6,84; 3,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 1,74</t>
+          <t>-8,38; 1,63</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-45,34; 11,16</t>
+          <t>-42,65; 14,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-38,2; 22,74</t>
+          <t>-34,74; 26,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-50,75; 9,26</t>
+          <t>-48,58; 8,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 86,96</t>
+          <t>-4,39; 94,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,52; 35,75</t>
+          <t>-34,71; 36,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,93; 36,52</t>
+          <t>-38,41; 37,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 38,52</t>
+          <t>-16,29; 33,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-28,67; 19,41</t>
+          <t>-28,9; 17,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-36,99; 9,85</t>
+          <t>-36,05; 8,83</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 3,6</t>
+          <t>-3,16; 4,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 0,79</t>
+          <t>-5,7; 1,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,44; -1,46</t>
+          <t>-8,57; -1,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 6,99</t>
+          <t>-0,12; 6,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 4,48</t>
+          <t>-2,95; 4,07</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,77; -0,98</t>
+          <t>-7,77; -0,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,39</t>
+          <t>-0,89; 4,29</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 1,63</t>
+          <t>-3,4; 1,33</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,19; -2,13</t>
+          <t>-7,05; -2,25</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 17,42</t>
+          <t>-12,73; 20,44</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-25,57; 3,82</t>
+          <t>-24,15; 4,82</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-34,76; -6,74</t>
+          <t>-35,5; -7,4</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 40,1</t>
+          <t>-0,56; 38,47</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 24,46</t>
+          <t>-13,54; 23,29</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-36,24; -5,33</t>
+          <t>-36,31; -3,93</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 21,84</t>
+          <t>-3,9; 21,56</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-15,28; 8,68</t>
+          <t>-15,35; 6,61</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-32,42; -10,64</t>
+          <t>-31,45; -11,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP17-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP17-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-10,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-6,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-8,53</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,15</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,93; 9,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 23,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,63; 1,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,33; 7,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,65; 3,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,73; 3,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,57; 4,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,11; 9,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,63; -1,78</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,06%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,79; 56,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,85; 134,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,97; 12,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,18; 40,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,27; 23,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,81; 18,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,35; 25,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,69; 48,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,34; -6,42</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,61</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,09</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,67</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,4</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,15</t>
+          <t>-4,55</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-8,81</t>
+          <t>-4,62</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 5,93</t>
+          <t>-1,61; 7,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 4,66</t>
+          <t>-3,75; 4,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,31; 1,38</t>
+          <t>-9,78; -0,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 8,75</t>
+          <t>-1,72; 7,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 22,53</t>
+          <t>-6,7; 1,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,64; 2,29</t>
+          <t>-9,11; -0,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 5,21</t>
+          <t>-0,25; 5,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 9,57</t>
+          <t>-4,34; 1,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,71; -0,9</t>
+          <t>-7,9; -1,8</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-15,22%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-25,65%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-36,52%</t>
+          <t>-24,46%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,58%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>47,29%</t>
+          <t>-10,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-41,61%</t>
+          <t>-20,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-9,96%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>-4,66%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-38,58%</t>
+          <t>-22,27%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-46,66; 32,06</t>
+          <t>-7,54; 44,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-56,56; 26,26</t>
+          <t>-17,11; 27,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-66,25; 11,48</t>
+          <t>-46,01; -2,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,14; 53,72</t>
+          <t>-7,2; 34,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 137,31</t>
+          <t>-27,68; 7,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-71,17; 15,15</t>
+          <t>-37,8; -2,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,38; 27,81</t>
+          <t>-1,25; 30,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,18; 50,25</t>
+          <t>-19,28; 9,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-61,62; -2,92</t>
+          <t>-35,91; -8,94</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,35</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>-4,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,38</t>
+          <t>-5,43</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,4</t>
+          <t>-3,36</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 7,23</t>
+          <t>-0,42; 15,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 1,92</t>
+          <t>-8,12; 5,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 0,04</t>
+          <t>-8,22; 5,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 7,39</t>
+          <t>-11,82; 2,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 5,17</t>
+          <t>-9,26; 5,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 0,08</t>
+          <t>-12,67; 1,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 6,13</t>
+          <t>-4,16; 6,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 2,13</t>
+          <t>-6,63; 3,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,12; -1,28</t>
+          <t>-8,46; 1,62</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>33,98%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-10,49%</t>
+          <t>-5,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-19,57%</t>
+          <t>-6,4%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>-18,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>-10,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-22,96%</t>
+          <t>-24,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-4,66%</t>
+          <t>-7,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-21,19%</t>
+          <t>-16,07%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 35,88</t>
+          <t>-2,16; 94,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-26,97; 8,78</t>
+          <t>-36,19; 34,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,64; 0,27</t>
+          <t>-35,46; 34,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 44,0</t>
+          <t>-44,77; 13,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 30,46</t>
+          <t>-36,65; 26,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,71; 1,58</t>
+          <t>-49,13; 13,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 31,44</t>
+          <t>-18,02; 33,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,35; 10,9</t>
+          <t>-27,69; 22,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,22; -6,61</t>
+          <t>-37,03; 9,22</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,34</t>
+          <t>-4,51</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,45</t>
+          <t>-4,79</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 2,73</t>
+          <t>-0,3; 7,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 4,84</t>
+          <t>-2,89; 4,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 1,42</t>
+          <t>-7,98; -0,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 14,94</t>
+          <t>-3,17; 4,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 5,88</t>
+          <t>-6,26; 0,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 6,08</t>
+          <t>-9,02; -2,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 6,03</t>
+          <t>-0,71; 4,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 3,15</t>
+          <t>-3,45; 1,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 1,63</t>
+          <t>-7,22; -2,11</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-18,88%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,0%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-23,96%</t>
+          <t>-22,97%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>33,98%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-5,97%</t>
+          <t>-12,01%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-8,17%</t>
+          <t>-22,96%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-7,69%</t>
+          <t>-4,62%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-16,5%</t>
+          <t>-22,76%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,65; 14,9</t>
+          <t>-1,36; 39,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,74; 26,52</t>
+          <t>-13,2; 22,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-48,58; 8,74</t>
+          <t>-37,64; -4,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 94,59</t>
+          <t>-13,28; 18,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,71; 36,19</t>
+          <t>-25,66; 3,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-38,41; 37,53</t>
+          <t>-36,87; -9,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 33,59</t>
+          <t>-3,18; 22,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-28,9; 17,19</t>
+          <t>-15,36; 8,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-36,05; 8,83</t>
+          <t>-32,63; -11,08</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-2,67</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-4,97</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>3,36</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,85</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-4,31</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>1,79</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-0,96</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-4,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-3,16; 4,08</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-5,7; 1,0</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-8,57; -1,55</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-0,12; 6,92</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-2,95; 4,07</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-7,77; -0,76</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 4,29</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-3,4; 1,33</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-7,05; -2,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>1,4%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-11,92%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-22,2%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>17,15%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>4,33%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-21,98%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>8,52%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-4,57%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-21,98%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-12,73; 20,44</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-24,15; 4,82</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-35,5; -7,4</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-0,56; 38,47</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-13,54; 23,29</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-36,31; -3,93</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-3,9; 21,56</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-15,35; 6,61</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-31,45; -11,17</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
